--- a/CVX_Kenya/Optimization/ pulp.xlsx
+++ b/CVX_Kenya/Optimization/ pulp.xlsx
@@ -540,25 +540,25 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7056420436128974</v>
+        <v>0.1344431303441525</v>
       </c>
       <c r="H4">
-        <v>1.587206880765049</v>
+        <v>7.443324598150316</v>
       </c>
       <c r="I4">
-        <v>3.892082331818528</v>
+        <v>0.003067406607442535</v>
       </c>
       <c r="J4">
-        <v>0.0005395624957600376</v>
+        <v>9.58861146500567e-05</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.004962510938639753</v>
+        <v>7.483456283807755e-05</v>
       </c>
       <c r="M4">
-        <v>0.002309762501681689</v>
+        <v>0.003578214587832917</v>
       </c>
       <c r="N4">
         <v>0</v>
